--- a/DataBased/UsersDB.xlsx
+++ b/DataBased/UsersDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossi\source\repos\yossiii050\FeatherFriend\DataBased\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDA5F05-C0C2-4C06-A385-C6FC5D83BE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB638DA-7F7D-4726-A72D-087FFFB42689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="876" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3240" windowWidth="18855" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>yossiyo</t>
   </si>
   <si>
     <t>Reuts8888!</t>
+  </si>
+  <si>
+    <t>yyyyyyy</t>
+  </si>
+  <si>
+    <t>123123WW!</t>
   </si>
 </sst>
 </file>
@@ -348,13 +354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -362,6 +368,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBased/UsersDB.xlsx
+++ b/DataBased/UsersDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB638DA-7F7D-4726-A72D-087FFFB42689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B8A74C-FFD6-496E-9F5D-6954C59CD29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3240" windowWidth="18855" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>yossiyo</t>
   </si>
@@ -37,19 +37,59 @@
   </si>
   <si>
     <t>123123WW!</t>
+  </si>
+  <si>
+    <t>Neriala</t>
+  </si>
+  <si>
+    <t>Neriala12#</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Passwords</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TonerMe</t>
+  </si>
+  <si>
+    <t>Toner12#</t>
+  </si>
+  <si>
+    <t>Yossko</t>
+  </si>
+  <si>
+    <t>Yossko12#</t>
+  </si>
+  <si>
+    <t>kaikaich</t>
+  </si>
+  <si>
+    <t>kaikai1@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,29 +395,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.8984375" customWidth="1"/>
+    <col min="2" max="2" width="19.09765625" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>111111112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>111111113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>111111114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>111111115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>111111119</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataBased/UsersDB.xlsx
+++ b/DataBased/UsersDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B8A74C-FFD6-496E-9F5D-6954C59CD29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB638DA-7F7D-4726-A72D-087FFFB42689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3240" windowWidth="18855" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>yossiyo</t>
   </si>
@@ -38,58 +38,18 @@
   <si>
     <t>123123WW!</t>
   </si>
-  <si>
-    <t>Neriala</t>
-  </si>
-  <si>
-    <t>Neriala12#</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Passwords</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>TonerMe</t>
-  </si>
-  <si>
-    <t>Toner12#</t>
-  </si>
-  <si>
-    <t>Yossko</t>
-  </si>
-  <si>
-    <t>Yossko12#</t>
-  </si>
-  <si>
-    <t>kaikaich</t>
-  </si>
-  <si>
-    <t>kaikai1@</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,9 +72,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,98 +354,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.8984375" customWidth="1"/>
-    <col min="2" max="2" width="19.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>111111111</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>111111112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>111111113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>111111114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>111111115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>111111119</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataBased/UsersDB.xlsx
+++ b/DataBased/UsersDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB638DA-7F7D-4726-A72D-087FFFB42689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD83D95-35C4-44D4-BDC0-2419F7D90712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3240" windowWidth="18855" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1470" windowWidth="11520" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>yossiyo</t>
   </si>
@@ -37,6 +37,21 @@
   </si>
   <si>
     <t>123123WW!</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Danidi</t>
+  </si>
+  <si>
+    <t>Danidi1@</t>
   </si>
 </sst>
 </file>
@@ -52,12 +67,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +93,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,26 +381,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1">
+        <v>318638566</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>206452856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>213152399</v>
       </c>
     </row>
   </sheetData>

--- a/DataBased/UsersDB.xlsx
+++ b/DataBased/UsersDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD83D95-35C4-44D4-BDC0-2419F7D90712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB638DA-7F7D-4726-A72D-087FFFB42689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1470" windowWidth="11520" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3240" windowWidth="18855" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>yossiyo</t>
   </si>
@@ -38,21 +38,6 @@
   <si>
     <t>123123WW!</t>
   </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Danidi</t>
-  </si>
-  <si>
-    <t>Danidi1@</t>
-  </si>
 </sst>
 </file>
 
@@ -67,18 +52,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,14 +72,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,62 +354,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>318638566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>206452856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>213152399</v>
       </c>
     </row>
   </sheetData>

--- a/DataBased/UsersDB.xlsx
+++ b/DataBased/UsersDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB638DA-7F7D-4726-A72D-087FFFB42689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99877EE7-AF7E-4D4F-B735-6337435CF678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3240" windowWidth="18855" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="11664" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>yossiyo</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>123123WW!</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>yossiyo2</t>
+  </si>
+  <si>
+    <t>Reuts1122!</t>
+  </si>
+  <si>
+    <t>206452856</t>
   </si>
 </sst>
 </file>
@@ -52,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +96,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,29 +390,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="4">
+        <v>318638566</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>213152390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataBased/UsersDB.xlsx
+++ b/DataBased/UsersDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99877EE7-AF7E-4D4F-B735-6337435CF678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA0DC6C-672D-46A5-B7AB-0A4050A1AEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="11664" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="1305" windowWidth="30255" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,18 +393,18 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="2"/>
+    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -426,7 +426,7 @@
         <v>318638566</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -437,7 +437,7 @@
         <v>213152390</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>

--- a/DataBased/UsersDB.xlsx
+++ b/DataBased/UsersDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA0DC6C-672D-46A5-B7AB-0A4050A1AEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B67370D-BECA-4BB5-9B57-6ABCCA0D868E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="1305" windowWidth="30255" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72" yWindow="336" windowWidth="11976" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>yossiyo</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>206452856</t>
+  </si>
+  <si>
+    <t>Neriala</t>
+  </si>
+  <si>
+    <t>tchrz123@</t>
+  </si>
+  <si>
+    <t>318692993</t>
   </si>
 </sst>
 </file>
@@ -390,21 +399,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="3" max="3" width="14.8984375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -415,7 +424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -426,7 +435,7 @@
         <v>318638566</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -437,7 +446,7 @@
         <v>213152390</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -446,6 +455,17 @@
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/DataBased/UsersDB.xlsx
+++ b/DataBased/UsersDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B67370D-BECA-4BB5-9B57-6ABCCA0D868E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE00F462-DBE6-47B4-A422-7375333CB9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="336" windowWidth="11976" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="9990" windowWidth="30255" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>yossiyo</t>
   </si>
   <si>
-    <t>Reuts8888!</t>
-  </si>
-  <si>
-    <t>yyyyyyy</t>
-  </si>
-  <si>
     <t>123123WW!</t>
   </si>
   <si>
@@ -48,22 +42,37 @@
     <t>ID</t>
   </si>
   <si>
-    <t>yossiyo2</t>
-  </si>
-  <si>
     <t>Reuts1122!</t>
   </si>
   <si>
     <t>206452856</t>
   </si>
   <si>
-    <t>Neriala</t>
-  </si>
-  <si>
     <t>tchrz123@</t>
   </si>
   <si>
     <t>318692993</t>
+  </si>
+  <si>
+    <t>tomerne</t>
+  </si>
+  <si>
+    <t>neriala</t>
+  </si>
+  <si>
+    <t>omero</t>
+  </si>
+  <si>
+    <t>Yosi8888!</t>
+  </si>
+  <si>
+    <t>yossiso1</t>
+  </si>
+  <si>
+    <t>Tomer12!</t>
+  </si>
+  <si>
+    <t>207338351</t>
   </si>
 </sst>
 </file>
@@ -399,73 +408,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="2"/>
+    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4">
         <v>318638566</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>213152390</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/DataBased/UsersDB.xlsx
+++ b/DataBased/UsersDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FeatherFriend\DataBased\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE00F462-DBE6-47B4-A422-7375333CB9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07D0AF9-D367-4566-B981-5827EECF566D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="9990" windowWidth="30255" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>yossiyo</t>
   </si>
   <si>
-    <t>123123WW!</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -42,15 +39,9 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Reuts1122!</t>
-  </si>
-  <si>
     <t>206452856</t>
   </si>
   <si>
-    <t>tchrz123@</t>
-  </si>
-  <si>
     <t>318692993</t>
   </si>
   <si>
@@ -63,16 +54,13 @@
     <t>omero</t>
   </si>
   <si>
-    <t>Yosi8888!</t>
-  </si>
-  <si>
-    <t>yossiso1</t>
-  </si>
-  <si>
-    <t>Tomer12!</t>
-  </si>
-  <si>
-    <t>207338351</t>
+    <t>055ef921716dabc901c32a25c6b158db41087db41d7c997aa713b4777dedcc65</t>
+  </si>
+  <si>
+    <t>reutisa</t>
+  </si>
+  <si>
+    <t>207555555</t>
   </si>
 </sst>
 </file>
@@ -411,81 +399,81 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="2"/>
+    <col min="2" max="2" width="87.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>318638566</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>213152390</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
